--- a/ozone/multistate/MAE_stacked_VTZP_MS_3.xlsx
+++ b/ozone/multistate/MAE_stacked_VTZP_MS_3.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1371241234565275</v>
+        <v>0.1398280558753876</v>
       </c>
       <c r="C2" t="n">
-        <v>1.625795582014583</v>
+        <v>1.851968239486237</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1518029568760648</v>
+        <v>0.1537600359795826</v>
       </c>
       <c r="C3" t="n">
-        <v>2.321102108096908</v>
+        <v>2.084463706772697</v>
       </c>
     </row>
   </sheetData>
